--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H2">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I2">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J2">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2046695519863</v>
+        <v>14.423744</v>
       </c>
       <c r="N2">
-        <v>14.2046695519863</v>
+        <v>28.847488</v>
       </c>
       <c r="O2">
-        <v>0.07104063749809195</v>
+        <v>0.06684772114689447</v>
       </c>
       <c r="P2">
-        <v>0.07104063749809195</v>
+        <v>0.04668958901604686</v>
       </c>
       <c r="Q2">
-        <v>661.5010869231667</v>
+        <v>678.3242104383039</v>
       </c>
       <c r="R2">
-        <v>661.5010869231667</v>
+        <v>2713.296841753216</v>
       </c>
       <c r="S2">
-        <v>0.008413603578213009</v>
+        <v>0.007827173129283183</v>
       </c>
       <c r="T2">
-        <v>0.008413603578213009</v>
+        <v>0.003834931636846717</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H3">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I3">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J3">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.37396553321</v>
+        <v>13.019874</v>
       </c>
       <c r="N3">
-        <v>12.37396553321</v>
+        <v>39.059622</v>
       </c>
       <c r="O3">
-        <v>0.06188488909520136</v>
+        <v>0.06034140002205402</v>
       </c>
       <c r="P3">
-        <v>0.06188488909520136</v>
+        <v>0.06321790300431507</v>
       </c>
       <c r="Q3">
-        <v>576.2465377889497</v>
+        <v>612.3025860037591</v>
       </c>
       <c r="R3">
-        <v>576.2465377889497</v>
+        <v>3673.815516022554</v>
       </c>
       <c r="S3">
-        <v>0.007329254672618697</v>
+        <v>0.007065350571907874</v>
       </c>
       <c r="T3">
-        <v>0.007329254672618697</v>
+        <v>0.005192513820651354</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H4">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I4">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J4">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.5657280444015</v>
+        <v>65.70614066666667</v>
       </c>
       <c r="N4">
-        <v>53.5657280444015</v>
+        <v>197.118422</v>
       </c>
       <c r="O4">
-        <v>0.2678938397262179</v>
+        <v>0.3045191157666107</v>
       </c>
       <c r="P4">
-        <v>0.2678938397262179</v>
+        <v>0.3190356855568045</v>
       </c>
       <c r="Q4">
-        <v>2494.516834307313</v>
+        <v>3090.048325085692</v>
       </c>
       <c r="R4">
-        <v>2494.516834307313</v>
+        <v>18540.28995051415</v>
       </c>
       <c r="S4">
-        <v>0.03172765121318439</v>
+        <v>0.03565602236527731</v>
       </c>
       <c r="T4">
-        <v>0.03172765121318439</v>
+        <v>0.02620455800980322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H5">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I5">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J5">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>94.24425453379919</v>
+        <v>96.450714</v>
       </c>
       <c r="N5">
-        <v>94.24425453379919</v>
+        <v>289.352142</v>
       </c>
       <c r="O5">
-        <v>0.4713359855440863</v>
+        <v>0.4470067157244936</v>
       </c>
       <c r="P5">
-        <v>0.4713359855440863</v>
+        <v>0.4683157365692581</v>
       </c>
       <c r="Q5">
-        <v>4388.886104122999</v>
+        <v>4535.913450783699</v>
       </c>
       <c r="R5">
-        <v>4388.886104122999</v>
+        <v>27215.4807047022</v>
       </c>
       <c r="S5">
-        <v>0.05582205163376795</v>
+        <v>0.05233983887407995</v>
       </c>
       <c r="T5">
-        <v>0.05582205163376795</v>
+        <v>0.03846593795429134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H6">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I6">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J6">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9357766761738</v>
+        <v>11.139906</v>
       </c>
       <c r="N6">
-        <v>10.9357766761738</v>
+        <v>33.419718</v>
       </c>
       <c r="O6">
-        <v>0.05469219426533697</v>
+        <v>0.05162857368313087</v>
       </c>
       <c r="P6">
-        <v>0.05469219426533697</v>
+        <v>0.05408973212683835</v>
       </c>
       <c r="Q6">
-        <v>509.2711330709146</v>
+        <v>523.8908803294711</v>
       </c>
       <c r="R6">
-        <v>509.2711330709146</v>
+        <v>3143.345281976826</v>
       </c>
       <c r="S6">
-        <v>0.006477397410510561</v>
+        <v>0.006045169195039827</v>
       </c>
       <c r="T6">
-        <v>0.006477397410510561</v>
+        <v>0.00444275542649314</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H7">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I7">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J7">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.6269300325932</v>
+        <v>15.029789</v>
       </c>
       <c r="N7">
-        <v>14.6269300325932</v>
+        <v>30.059578</v>
       </c>
       <c r="O7">
-        <v>0.0731524538710656</v>
+        <v>0.06965647365681629</v>
       </c>
       <c r="P7">
-        <v>0.0731524538710656</v>
+        <v>0.04865135372673711</v>
       </c>
       <c r="Q7">
-        <v>681.1654491150421</v>
+        <v>706.8254786329616</v>
       </c>
       <c r="R7">
-        <v>681.1654491150421</v>
+        <v>2827.301914531846</v>
       </c>
       <c r="S7">
-        <v>0.008663713746391851</v>
+        <v>0.008156048845542184</v>
       </c>
       <c r="T7">
-        <v>0.008663713746391851</v>
+        <v>0.003996064636978498</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H8">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J8">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2046695519863</v>
+        <v>14.423744</v>
       </c>
       <c r="N8">
-        <v>14.2046695519863</v>
+        <v>28.847488</v>
       </c>
       <c r="O8">
-        <v>0.07104063749809195</v>
+        <v>0.06684772114689447</v>
       </c>
       <c r="P8">
-        <v>0.07104063749809195</v>
+        <v>0.04668958901604686</v>
       </c>
       <c r="Q8">
-        <v>165.5453278794642</v>
+        <v>177.8630191719893</v>
       </c>
       <c r="R8">
-        <v>165.5453278794642</v>
+        <v>1067.178115031936</v>
       </c>
       <c r="S8">
-        <v>0.002105563831318214</v>
+        <v>0.002052358773184017</v>
       </c>
       <c r="T8">
-        <v>0.002105563831318214</v>
+        <v>0.001508332981673315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H9">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J9">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.37396553321</v>
+        <v>13.019874</v>
       </c>
       <c r="N9">
-        <v>12.37396553321</v>
+        <v>39.059622</v>
       </c>
       <c r="O9">
-        <v>0.06188488909520136</v>
+        <v>0.06034140002205402</v>
       </c>
       <c r="P9">
-        <v>0.06188488909520136</v>
+        <v>0.06321790300431507</v>
       </c>
       <c r="Q9">
-        <v>144.2097736851608</v>
+        <v>160.551525240526</v>
       </c>
       <c r="R9">
-        <v>144.2097736851608</v>
+        <v>1444.963727164734</v>
       </c>
       <c r="S9">
-        <v>0.001834197844684244</v>
+        <v>0.001852601698258821</v>
       </c>
       <c r="T9">
-        <v>0.001834197844684244</v>
+        <v>0.002042289301387096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H10">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J10">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.5657280444015</v>
+        <v>65.70614066666667</v>
       </c>
       <c r="N10">
-        <v>53.5657280444015</v>
+        <v>197.118422</v>
       </c>
       <c r="O10">
-        <v>0.2678938397262179</v>
+        <v>0.3045191157666107</v>
       </c>
       <c r="P10">
-        <v>0.2678938397262179</v>
+        <v>0.3190356855568045</v>
       </c>
       <c r="Q10">
-        <v>624.2704893457144</v>
+        <v>810.2398764920372</v>
       </c>
       <c r="R10">
-        <v>624.2704893457144</v>
+        <v>7292.158888428335</v>
       </c>
       <c r="S10">
-        <v>0.007940069225527896</v>
+        <v>0.00934934606779602</v>
       </c>
       <c r="T10">
-        <v>0.007940069225527896</v>
+        <v>0.0103066241746248</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H11">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J11">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>94.24425453379919</v>
+        <v>96.450714</v>
       </c>
       <c r="N11">
-        <v>94.24425453379919</v>
+        <v>289.352142</v>
       </c>
       <c r="O11">
-        <v>0.4713359855440863</v>
+        <v>0.4470067157244936</v>
       </c>
       <c r="P11">
-        <v>0.4713359855440863</v>
+        <v>0.4683157365692581</v>
       </c>
       <c r="Q11">
-        <v>1098.349803946817</v>
+        <v>1189.359378073686</v>
       </c>
       <c r="R11">
-        <v>1098.349803946817</v>
+        <v>10704.23440266317</v>
       </c>
       <c r="S11">
-        <v>0.0139698634262257</v>
+        <v>0.01372400044383501</v>
       </c>
       <c r="T11">
-        <v>0.0139698634262257</v>
+        <v>0.01512919873981473</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H12">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I12">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J12">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.9357766761738</v>
+        <v>11.139906</v>
       </c>
       <c r="N12">
-        <v>10.9357766761738</v>
+        <v>33.419718</v>
       </c>
       <c r="O12">
-        <v>0.05469219426533697</v>
+        <v>0.05162857368313087</v>
       </c>
       <c r="P12">
-        <v>0.05469219426533697</v>
+        <v>0.05408973212683835</v>
       </c>
       <c r="Q12">
-        <v>127.4487047268648</v>
+        <v>137.369140387694</v>
       </c>
       <c r="R12">
-        <v>127.4487047268648</v>
+        <v>1236.322263489246</v>
       </c>
       <c r="S12">
-        <v>0.001621014536977036</v>
+        <v>0.001585100498978994</v>
       </c>
       <c r="T12">
-        <v>0.001621014536977036</v>
+        <v>0.001747398695429611</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H13">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I13">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J13">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.6269300325932</v>
+        <v>15.029789</v>
       </c>
       <c r="N13">
-        <v>14.6269300325932</v>
+        <v>30.059578</v>
       </c>
       <c r="O13">
-        <v>0.0731524538710656</v>
+        <v>0.06965647365681629</v>
       </c>
       <c r="P13">
-        <v>0.0731524538710656</v>
+        <v>0.04865135372673711</v>
       </c>
       <c r="Q13">
-        <v>170.4664736658394</v>
+        <v>185.3363210729443</v>
       </c>
       <c r="R13">
-        <v>170.4664736658394</v>
+        <v>1112.017926437666</v>
       </c>
       <c r="S13">
-        <v>0.002168155670720534</v>
+        <v>0.002138593094362645</v>
       </c>
       <c r="T13">
-        <v>0.002168155670720534</v>
+        <v>0.001571708875052885</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H14">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I14">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J14">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2046695519863</v>
+        <v>14.423744</v>
       </c>
       <c r="N14">
-        <v>14.2046695519863</v>
+        <v>28.847488</v>
       </c>
       <c r="O14">
-        <v>0.07104063749809195</v>
+        <v>0.06684772114689447</v>
       </c>
       <c r="P14">
-        <v>0.07104063749809195</v>
+        <v>0.04668958901604686</v>
       </c>
       <c r="Q14">
-        <v>1771.817800123832</v>
+        <v>1861.375662806869</v>
       </c>
       <c r="R14">
-        <v>1771.817800123832</v>
+        <v>11168.25397684122</v>
       </c>
       <c r="S14">
-        <v>0.02253567360320131</v>
+        <v>0.0214783865107948</v>
       </c>
       <c r="T14">
-        <v>0.02253567360320131</v>
+        <v>0.01578503680284866</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H15">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I15">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J15">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.37396553321</v>
+        <v>13.019874</v>
       </c>
       <c r="N15">
-        <v>12.37396553321</v>
+        <v>39.059622</v>
       </c>
       <c r="O15">
-        <v>0.06188488909520136</v>
+        <v>0.06034140002205402</v>
       </c>
       <c r="P15">
-        <v>0.06188488909520136</v>
+        <v>0.06321790300431507</v>
       </c>
       <c r="Q15">
-        <v>1543.465147824891</v>
+        <v>1680.207066654256</v>
       </c>
       <c r="R15">
-        <v>1543.465147824891</v>
+        <v>15121.86359988831</v>
       </c>
       <c r="S15">
-        <v>0.01963126614196314</v>
+        <v>0.01938788473324595</v>
       </c>
       <c r="T15">
-        <v>0.01963126614196314</v>
+        <v>0.0213730072710441</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H16">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I16">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J16">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.5657280444015</v>
+        <v>65.70614066666667</v>
       </c>
       <c r="N16">
-        <v>53.5657280444015</v>
+        <v>197.118422</v>
       </c>
       <c r="O16">
-        <v>0.2678938397262179</v>
+        <v>0.3045191157666107</v>
       </c>
       <c r="P16">
-        <v>0.2678938397262179</v>
+        <v>0.3190356855568045</v>
       </c>
       <c r="Q16">
-        <v>6681.514841180621</v>
+        <v>8479.338730214433</v>
       </c>
       <c r="R16">
-        <v>6681.514841180621</v>
+        <v>76314.0485719299</v>
       </c>
       <c r="S16">
-        <v>0.08498189691133501</v>
+        <v>0.09784296541669896</v>
       </c>
       <c r="T16">
-        <v>0.08498189691133501</v>
+        <v>0.1078610916066402</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H17">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I17">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J17">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>94.24425453379919</v>
+        <v>96.450714</v>
       </c>
       <c r="N17">
-        <v>94.24425453379919</v>
+        <v>289.352142</v>
       </c>
       <c r="O17">
-        <v>0.4713359855440863</v>
+        <v>0.4470067157244936</v>
       </c>
       <c r="P17">
-        <v>0.4713359855440863</v>
+        <v>0.4683157365692581</v>
       </c>
       <c r="Q17">
-        <v>11755.54609920768</v>
+        <v>12446.90780007922</v>
       </c>
       <c r="R17">
-        <v>11755.54609920768</v>
+        <v>112022.1702007129</v>
       </c>
       <c r="S17">
-        <v>0.1495182799837632</v>
+        <v>0.1436246868035184</v>
       </c>
       <c r="T17">
-        <v>0.1495182799837632</v>
+        <v>0.1583303964093196</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H18">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I18">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J18">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.9357766761738</v>
+        <v>11.139906</v>
       </c>
       <c r="N18">
-        <v>10.9357766761738</v>
+        <v>33.419718</v>
       </c>
       <c r="O18">
-        <v>0.05469219426533697</v>
+        <v>0.05162857368313087</v>
       </c>
       <c r="P18">
-        <v>0.05469219426533697</v>
+        <v>0.05408973212683835</v>
       </c>
       <c r="Q18">
-        <v>1364.072828453395</v>
+        <v>1437.598304182064</v>
       </c>
       <c r="R18">
-        <v>1364.072828453395</v>
+        <v>12938.38473763858</v>
       </c>
       <c r="S18">
-        <v>0.01734958302759623</v>
+        <v>0.01658842577640882</v>
       </c>
       <c r="T18">
-        <v>0.01734958302759623</v>
+        <v>0.01828691214191073</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H19">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I19">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J19">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.6269300325932</v>
+        <v>15.029789</v>
       </c>
       <c r="N19">
-        <v>14.6269300325932</v>
+        <v>30.059578</v>
       </c>
       <c r="O19">
-        <v>0.0731524538710656</v>
+        <v>0.06965647365681629</v>
       </c>
       <c r="P19">
-        <v>0.0731524538710656</v>
+        <v>0.04865135372673711</v>
       </c>
       <c r="Q19">
-        <v>1824.48841193145</v>
+        <v>1939.585412894349</v>
       </c>
       <c r="R19">
-        <v>1824.48841193145</v>
+        <v>11637.5124773661</v>
       </c>
       <c r="S19">
-        <v>0.02320558882591463</v>
+        <v>0.02238084767156795</v>
       </c>
       <c r="T19">
-        <v>0.02320558882591463</v>
+        <v>0.01644827948305586</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H20">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I20">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J20">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2046695519863</v>
+        <v>14.423744</v>
       </c>
       <c r="N20">
-        <v>14.2046695519863</v>
+        <v>28.847488</v>
       </c>
       <c r="O20">
-        <v>0.07104063749809195</v>
+        <v>0.06684772114689447</v>
       </c>
       <c r="P20">
-        <v>0.07104063749809195</v>
+        <v>0.04668958901604686</v>
       </c>
       <c r="Q20">
-        <v>2252.034517250986</v>
+        <v>2288.23372647921</v>
       </c>
       <c r="R20">
-        <v>2252.034517250986</v>
+        <v>13729.40235887526</v>
       </c>
       <c r="S20">
-        <v>0.0286435291599194</v>
+        <v>0.02640389545560326</v>
       </c>
       <c r="T20">
-        <v>0.0286435291599194</v>
+        <v>0.0194049241685726</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H21">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I21">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J21">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.37396553321</v>
+        <v>13.019874</v>
       </c>
       <c r="N21">
-        <v>12.37396553321</v>
+        <v>39.059622</v>
       </c>
       <c r="O21">
-        <v>0.06188488909520136</v>
+        <v>0.06034140002205402</v>
       </c>
       <c r="P21">
-        <v>0.06188488909520136</v>
+        <v>0.06321790300431507</v>
       </c>
       <c r="Q21">
-        <v>1961.791324611716</v>
+        <v>2065.518827934674</v>
       </c>
       <c r="R21">
-        <v>1961.791324611716</v>
+        <v>18589.66945141207</v>
       </c>
       <c r="S21">
-        <v>0.02495193860562397</v>
+        <v>0.02383399150325512</v>
       </c>
       <c r="T21">
-        <v>0.02495193860562397</v>
+        <v>0.02627435022984013</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H22">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I22">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J22">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.5657280444015</v>
+        <v>65.70614066666667</v>
       </c>
       <c r="N22">
-        <v>53.5657280444015</v>
+        <v>197.118422</v>
       </c>
       <c r="O22">
-        <v>0.2678938397262179</v>
+        <v>0.3045191157666107</v>
       </c>
       <c r="P22">
-        <v>0.2678938397262179</v>
+        <v>0.3190356855568045</v>
       </c>
       <c r="Q22">
-        <v>8492.409348642879</v>
+        <v>10423.85438276316</v>
       </c>
       <c r="R22">
-        <v>8492.409348642879</v>
+        <v>93814.68944486846</v>
       </c>
       <c r="S22">
-        <v>0.1080145854570462</v>
+        <v>0.1202807030514288</v>
       </c>
       <c r="T22">
-        <v>0.1080145854570462</v>
+        <v>0.1325962257489697</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H23">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I23">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J23">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>94.24425453379919</v>
+        <v>96.450714</v>
       </c>
       <c r="N23">
-        <v>94.24425453379919</v>
+        <v>289.352142</v>
       </c>
       <c r="O23">
-        <v>0.4713359855440863</v>
+        <v>0.4470067157244936</v>
       </c>
       <c r="P23">
-        <v>0.4713359855440863</v>
+        <v>0.4683157365692581</v>
       </c>
       <c r="Q23">
-        <v>14941.65798689945</v>
+        <v>15301.28215793351</v>
       </c>
       <c r="R23">
-        <v>14941.65798689945</v>
+        <v>137711.5394214016</v>
       </c>
       <c r="S23">
-        <v>0.1900422986268105</v>
+        <v>0.1765612707126727</v>
       </c>
       <c r="T23">
-        <v>0.1900422986268105</v>
+        <v>0.1946393520823738</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H24">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I24">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J24">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.9357766761738</v>
+        <v>11.139906</v>
       </c>
       <c r="N24">
-        <v>10.9357766761738</v>
+        <v>33.419718</v>
       </c>
       <c r="O24">
-        <v>0.05469219426533697</v>
+        <v>0.05162857368313087</v>
       </c>
       <c r="P24">
-        <v>0.05469219426533697</v>
+        <v>0.05408973212683835</v>
       </c>
       <c r="Q24">
-        <v>1733.778209873798</v>
+        <v>1767.274059981106</v>
       </c>
       <c r="R24">
-        <v>1733.778209873798</v>
+        <v>15905.46653982995</v>
       </c>
       <c r="S24">
-        <v>0.02205184970786942</v>
+        <v>0.02039254949403203</v>
       </c>
       <c r="T24">
-        <v>0.02205184970786942</v>
+        <v>0.0224805395022638</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H25">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I25">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J25">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.6269300325932</v>
+        <v>15.029789</v>
       </c>
       <c r="N25">
-        <v>14.6269300325932</v>
+        <v>30.059578</v>
       </c>
       <c r="O25">
-        <v>0.0731524538710656</v>
+        <v>0.06965647365681629</v>
       </c>
       <c r="P25">
-        <v>0.0731524538710656</v>
+        <v>0.04865135372673711</v>
       </c>
       <c r="Q25">
-        <v>2318.980472883213</v>
+        <v>2384.378847244256</v>
       </c>
       <c r="R25">
-        <v>2318.980472883213</v>
+        <v>14306.27308346553</v>
       </c>
       <c r="S25">
-        <v>0.0294950118603849</v>
+        <v>0.02751331259593736</v>
       </c>
       <c r="T25">
-        <v>0.0294950118603849</v>
+        <v>0.02022026429577831</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H26">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I26">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J26">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2046695519863</v>
+        <v>14.423744</v>
       </c>
       <c r="N26">
-        <v>14.2046695519863</v>
+        <v>28.847488</v>
       </c>
       <c r="O26">
-        <v>0.07104063749809195</v>
+        <v>0.06684772114689447</v>
       </c>
       <c r="P26">
-        <v>0.07104063749809195</v>
+        <v>0.04668958901604686</v>
       </c>
       <c r="Q26">
-        <v>553.0668727282603</v>
+        <v>603.06084740704</v>
       </c>
       <c r="R26">
-        <v>553.0668727282603</v>
+        <v>3618.36508444224</v>
       </c>
       <c r="S26">
-        <v>0.007034433520013321</v>
+        <v>0.006958710285597943</v>
       </c>
       <c r="T26">
-        <v>0.007034433520013321</v>
+        <v>0.005114141041428735</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H27">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I27">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J27">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>12.37396553321</v>
+        <v>13.019874</v>
       </c>
       <c r="N27">
-        <v>12.37396553321</v>
+        <v>39.059622</v>
       </c>
       <c r="O27">
-        <v>0.06188488909520136</v>
+        <v>0.06034140002205402</v>
       </c>
       <c r="P27">
-        <v>0.06188488909520136</v>
+        <v>0.06321790300431507</v>
       </c>
       <c r="Q27">
-        <v>481.7873725012321</v>
+        <v>544.36464260409</v>
       </c>
       <c r="R27">
-        <v>481.7873725012321</v>
+        <v>4899.281783436811</v>
       </c>
       <c r="S27">
-        <v>0.006127832654166195</v>
+        <v>0.00628141563806105</v>
       </c>
       <c r="T27">
-        <v>0.006127832654166195</v>
+        <v>0.006924568819749325</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H28">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I28">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J28">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>53.5657280444015</v>
+        <v>65.70614066666667</v>
       </c>
       <c r="N28">
-        <v>53.5657280444015</v>
+        <v>197.118422</v>
       </c>
       <c r="O28">
-        <v>0.2678938397262179</v>
+        <v>0.3045191157666107</v>
       </c>
       <c r="P28">
-        <v>0.2678938397262179</v>
+        <v>0.3190356855568045</v>
       </c>
       <c r="Q28">
-        <v>2085.612029657314</v>
+        <v>2747.192467523424</v>
       </c>
       <c r="R28">
-        <v>2085.612029657314</v>
+        <v>24724.73220771081</v>
       </c>
       <c r="S28">
-        <v>0.02652680877231427</v>
+        <v>0.03169981364644843</v>
       </c>
       <c r="T28">
-        <v>0.02652680877231427</v>
+        <v>0.03494555269324903</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H29">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I29">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J29">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>94.24425453379919</v>
+        <v>96.450714</v>
       </c>
       <c r="N29">
-        <v>94.24425453379919</v>
+        <v>289.352142</v>
       </c>
       <c r="O29">
-        <v>0.4713359855440863</v>
+        <v>0.4470067157244936</v>
       </c>
       <c r="P29">
-        <v>0.4713359855440863</v>
+        <v>0.4683157365692581</v>
       </c>
       <c r="Q29">
-        <v>3669.453550950493</v>
+        <v>4032.63184079349</v>
       </c>
       <c r="R29">
-        <v>3669.453550950493</v>
+        <v>36293.68656714141</v>
       </c>
       <c r="S29">
-        <v>0.0466716202538144</v>
+        <v>0.04653247974763457</v>
       </c>
       <c r="T29">
-        <v>0.0466716202538144</v>
+        <v>0.05129693319666224</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H30">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I30">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J30">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.9357766761738</v>
+        <v>11.139906</v>
       </c>
       <c r="N30">
-        <v>10.9357766761738</v>
+        <v>33.419718</v>
       </c>
       <c r="O30">
-        <v>0.05469219426533697</v>
+        <v>0.05162857368313087</v>
       </c>
       <c r="P30">
-        <v>0.05469219426533697</v>
+        <v>0.05408973212683835</v>
       </c>
       <c r="Q30">
-        <v>425.7906729199726</v>
+        <v>465.7626447332101</v>
       </c>
       <c r="R30">
-        <v>425.7906729199726</v>
+        <v>4191.86380259889</v>
       </c>
       <c r="S30">
-        <v>0.00541561306559925</v>
+        <v>0.00537442833586025</v>
       </c>
       <c r="T30">
-        <v>0.00541561306559925</v>
+        <v>0.005924715227085793</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H31">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I31">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J31">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>14.6269300325932</v>
+        <v>15.029789</v>
       </c>
       <c r="N31">
-        <v>14.6269300325932</v>
+        <v>30.059578</v>
       </c>
       <c r="O31">
-        <v>0.0731524538710656</v>
+        <v>0.06965647365681629</v>
       </c>
       <c r="P31">
-        <v>0.0731524538710656</v>
+        <v>0.04865135372673711</v>
       </c>
       <c r="Q31">
-        <v>569.5078242499613</v>
+        <v>628.3997615798651</v>
       </c>
       <c r="R31">
-        <v>569.5078242499613</v>
+        <v>3770.39856947919</v>
       </c>
       <c r="S31">
-        <v>0.007243545267955586</v>
+        <v>0.007251095645115917</v>
       </c>
       <c r="T31">
-        <v>0.007243545267955586</v>
+        <v>0.005329022809120445</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H32">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I32">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J32">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.2046695519863</v>
+        <v>14.423744</v>
       </c>
       <c r="N32">
-        <v>14.2046695519863</v>
+        <v>28.847488</v>
       </c>
       <c r="O32">
-        <v>0.07104063749809195</v>
+        <v>0.06684772114689447</v>
       </c>
       <c r="P32">
-        <v>0.07104063749809195</v>
+        <v>0.04668958901604686</v>
       </c>
       <c r="Q32">
-        <v>181.4483599727711</v>
+        <v>184.348703740736</v>
       </c>
       <c r="R32">
-        <v>181.4483599727711</v>
+        <v>737.394814962944</v>
       </c>
       <c r="S32">
-        <v>0.002307833805426699</v>
+        <v>0.002127196992431268</v>
       </c>
       <c r="T32">
-        <v>0.002307833805426699</v>
+        <v>0.001042222384676822</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H33">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I33">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J33">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>12.37396553321</v>
+        <v>13.019874</v>
       </c>
       <c r="N33">
-        <v>12.37396553321</v>
+        <v>39.059622</v>
       </c>
       <c r="O33">
-        <v>0.06188488909520136</v>
+        <v>0.06034140002205402</v>
       </c>
       <c r="P33">
-        <v>0.06188488909520136</v>
+        <v>0.06321790300431507</v>
       </c>
       <c r="Q33">
-        <v>158.0632160532443</v>
+        <v>166.405954984206</v>
       </c>
       <c r="R33">
-        <v>158.0632160532443</v>
+        <v>998.4357299052361</v>
       </c>
       <c r="S33">
-        <v>0.002010399176145115</v>
+        <v>0.001920155877325199</v>
       </c>
       <c r="T33">
-        <v>0.002010399176145115</v>
+        <v>0.001411173561643054</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H34">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I34">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J34">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>53.5657280444015</v>
+        <v>65.70614066666667</v>
       </c>
       <c r="N34">
-        <v>53.5657280444015</v>
+        <v>197.118422</v>
       </c>
       <c r="O34">
-        <v>0.2678938397262179</v>
+        <v>0.3045191157666107</v>
       </c>
       <c r="P34">
-        <v>0.2678938397262179</v>
+        <v>0.3190356855568045</v>
       </c>
       <c r="Q34">
-        <v>684.2407328683699</v>
+        <v>839.7848616632727</v>
       </c>
       <c r="R34">
-        <v>684.2407328683699</v>
+        <v>5038.709169979636</v>
       </c>
       <c r="S34">
-        <v>0.008702828146810102</v>
+        <v>0.009690265218961124</v>
       </c>
       <c r="T34">
-        <v>0.008702828146810102</v>
+        <v>0.00712163332351753</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H35">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I35">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J35">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>94.24425453379919</v>
+        <v>96.450714</v>
       </c>
       <c r="N35">
-        <v>94.24425453379919</v>
+        <v>289.352142</v>
       </c>
       <c r="O35">
-        <v>0.4713359855440863</v>
+        <v>0.4470067157244936</v>
       </c>
       <c r="P35">
-        <v>0.4713359855440863</v>
+        <v>0.4683157365692581</v>
       </c>
       <c r="Q35">
-        <v>1203.862248215625</v>
+        <v>1232.728763126166</v>
       </c>
       <c r="R35">
-        <v>1203.862248215625</v>
+        <v>7396.372578756997</v>
       </c>
       <c r="S35">
-        <v>0.01531187161970454</v>
+        <v>0.01422443914275298</v>
       </c>
       <c r="T35">
-        <v>0.01531187161970454</v>
+        <v>0.01045391818679624</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H36">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I36">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J36">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.9357766761738</v>
+        <v>11.139906</v>
       </c>
       <c r="N36">
-        <v>10.9357766761738</v>
+        <v>33.419718</v>
       </c>
       <c r="O36">
-        <v>0.05469219426533697</v>
+        <v>0.05162857368313087</v>
       </c>
       <c r="P36">
-        <v>0.05469219426533697</v>
+        <v>0.05408973212683835</v>
       </c>
       <c r="Q36">
-        <v>139.692003088009</v>
+        <v>142.378236253614</v>
       </c>
       <c r="R36">
-        <v>139.692003088009</v>
+        <v>854.2694175216841</v>
       </c>
       <c r="S36">
-        <v>0.001776736516784482</v>
+        <v>0.001642900382810943</v>
       </c>
       <c r="T36">
-        <v>0.001776736516784482</v>
+        <v>0.001207411133655274</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H37">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I37">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J37">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>14.6269300325932</v>
+        <v>15.029789</v>
       </c>
       <c r="N37">
-        <v>14.6269300325932</v>
+        <v>30.059578</v>
       </c>
       <c r="O37">
-        <v>0.0731524538710656</v>
+        <v>0.06965647365681629</v>
       </c>
       <c r="P37">
-        <v>0.0731524538710656</v>
+        <v>0.04865135372673711</v>
       </c>
       <c r="Q37">
-        <v>186.8422532560346</v>
+        <v>192.094515796091</v>
       </c>
       <c r="R37">
-        <v>186.8422532560346</v>
+        <v>768.3780631843641</v>
       </c>
       <c r="S37">
-        <v>0.002376438499698103</v>
+        <v>0.002216575804290243</v>
       </c>
       <c r="T37">
-        <v>0.002376438499698103</v>
+        <v>0.001086013626751103</v>
       </c>
     </row>
   </sheetData>
